--- a/data/leukemia.xlsx
+++ b/data/leukemia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\My_R\practical_stats_med-r\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83A876C3-950C-496D-B0CA-50BEB686B664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F11E78F-926C-4AB4-8E28-213DA9C3B720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C1B5C2D3-1141-4077-A721-3A32D5657DFD}"/>
   </bookViews>
@@ -405,14 +405,14 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="13.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
